--- a/artfynd/A 9075-2023.xlsx
+++ b/artfynd/A 9075-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY20"/>
+  <dimension ref="A1:AY24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2897,6 +2897,478 @@
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111895224</v>
+      </c>
+      <c r="B21" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Västanvik, Vrm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>383386.3213553141</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6664494.102709929</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Fryksände</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>August Oljeqvist</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>August Oljeqvist, Jonas Göransson, Daniel Hertz Wallin , Amanda Evensen, Denise Persson, Johanna Klauss, Åsa Röstell, Edvin Johansson , Olavi Niemelä</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>111895144</v>
+      </c>
+      <c r="B22" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Västanvik, Vrm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>383214.7932507099</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6664538.975714988</v>
+      </c>
+      <c r="S22" t="n">
+        <v>25</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Fryksände</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>August Oljeqvist</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>August Oljeqvist, Jonas Göransson, Daniel Hertz Wallin , Amanda Evensen, Denise Persson, Johanna Klauss, Åsa Röstell, Edvin Johansson , Olavi Niemelä</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>111895157</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90709</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Västanvik, Vrm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>383310.7440082335</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6664459.574209161</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Fryksände</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>August Oljeqvist</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>August Oljeqvist, Jonas Göransson, Daniel Hertz Wallin , Amanda Evensen, Denise Persson, Johanna Klauss, Åsa Röstell, Edvin Johansson , Olavi Niemelä</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>111895200</v>
+      </c>
+      <c r="B24" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Västanvik, Vrm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>383318.0931039054</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6664423.409828701</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Fryksände</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>August Oljeqvist</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>August Oljeqvist, Jonas Göransson, Daniel Hertz Wallin , Amanda Evensen, Denise Persson, Johanna Klauss, Åsa Röstell, Edvin Johansson , Olavi Niemelä</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 9075-2023.xlsx
+++ b/artfynd/A 9075-2023.xlsx
@@ -2899,10 +2899,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111895224</v>
+        <v>111895200</v>
       </c>
       <c r="B21" t="n">
-        <v>90682</v>
+        <v>90689</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2915,21 +2915,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2059</v>
+        <v>5966</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2942,10 +2942,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>383386.3213553141</v>
+        <v>383318.0931039054</v>
       </c>
       <c r="R21" t="n">
-        <v>6664494.102709929</v>
+        <v>6664423.409828701</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111895144</v>
+        <v>111895224</v>
       </c>
       <c r="B22" t="n">
-        <v>56414</v>
+        <v>90682</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3031,35 +3031,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>2059</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3067,13 +3058,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>383214.7932507099</v>
+        <v>383386.3213553141</v>
       </c>
       <c r="R22" t="n">
-        <v>6664538.975714988</v>
+        <v>6664494.102709929</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3121,6 +3112,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3139,10 +3131,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111895157</v>
+        <v>111895144</v>
       </c>
       <c r="B23" t="n">
-        <v>90709</v>
+        <v>56414</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3155,26 +3147,35 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5448</v>
+        <v>100049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3182,13 +3183,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>383310.7440082335</v>
+        <v>383214.7932507099</v>
       </c>
       <c r="R23" t="n">
-        <v>6664459.574209161</v>
+        <v>6664538.975714988</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3236,7 +3237,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3255,10 +3255,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111895200</v>
+        <v>111895157</v>
       </c>
       <c r="B24" t="n">
-        <v>90689</v>
+        <v>90709</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3271,21 +3271,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5966</v>
+        <v>5448</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3298,10 +3298,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>383318.0931039054</v>
+        <v>383310.7440082335</v>
       </c>
       <c r="R24" t="n">
-        <v>6664423.409828701</v>
+        <v>6664459.574209161</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>

--- a/artfynd/A 9075-2023.xlsx
+++ b/artfynd/A 9075-2023.xlsx
@@ -2899,10 +2899,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111895200</v>
+        <v>111895157</v>
       </c>
       <c r="B21" t="n">
-        <v>90689</v>
+        <v>90709</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2915,21 +2915,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5966</v>
+        <v>5448</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2942,10 +2942,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>383318.0931039054</v>
+        <v>383310.7440082335</v>
       </c>
       <c r="R21" t="n">
-        <v>6664423.409828701</v>
+        <v>6664459.574209161</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3255,10 +3255,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111895157</v>
+        <v>111895200</v>
       </c>
       <c r="B24" t="n">
-        <v>90709</v>
+        <v>90689</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3271,21 +3271,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5448</v>
+        <v>5966</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3298,10 +3298,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>383310.7440082335</v>
+        <v>383318.0931039054</v>
       </c>
       <c r="R24" t="n">
-        <v>6664459.574209161</v>
+        <v>6664423.409828701</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>

--- a/artfynd/A 9075-2023.xlsx
+++ b/artfynd/A 9075-2023.xlsx
@@ -3131,10 +3131,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111895144</v>
+        <v>111895200</v>
       </c>
       <c r="B23" t="n">
-        <v>56414</v>
+        <v>90689</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3147,35 +3147,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100049</v>
+        <v>5966</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3183,13 +3174,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>383214.7932507099</v>
+        <v>383318.0931039054</v>
       </c>
       <c r="R23" t="n">
-        <v>6664538.975714988</v>
+        <v>6664423.409828701</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3237,6 +3228,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3255,10 +3247,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111895200</v>
+        <v>111895144</v>
       </c>
       <c r="B24" t="n">
-        <v>90689</v>
+        <v>56414</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3271,26 +3263,35 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5966</v>
+        <v>100049</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3298,13 +3299,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>383318.0931039054</v>
+        <v>383214.7932507099</v>
       </c>
       <c r="R24" t="n">
-        <v>6664423.409828701</v>
+        <v>6664538.975714988</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3352,7 +3353,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 9075-2023.xlsx
+++ b/artfynd/A 9075-2023.xlsx
@@ -2899,10 +2899,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111895157</v>
+        <v>111895224</v>
       </c>
       <c r="B21" t="n">
-        <v>90709</v>
+        <v>90682</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2915,21 +2915,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5448</v>
+        <v>2059</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2942,10 +2942,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>383310.7440082335</v>
+        <v>383386.3213553141</v>
       </c>
       <c r="R21" t="n">
-        <v>6664459.574209161</v>
+        <v>6664494.102709929</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111895224</v>
+        <v>111895157</v>
       </c>
       <c r="B22" t="n">
-        <v>90682</v>
+        <v>90709</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3031,21 +3031,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2059</v>
+        <v>5448</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3058,10 +3058,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>383386.3213553141</v>
+        <v>383310.7440082335</v>
       </c>
       <c r="R22" t="n">
-        <v>6664494.102709929</v>
+        <v>6664459.574209161</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>

--- a/artfynd/A 9075-2023.xlsx
+++ b/artfynd/A 9075-2023.xlsx
@@ -3015,10 +3015,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111895157</v>
+        <v>111895144</v>
       </c>
       <c r="B22" t="n">
-        <v>90709</v>
+        <v>56414</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3031,26 +3031,35 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5448</v>
+        <v>100049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3058,13 +3067,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>383310.7440082335</v>
+        <v>383214.7932507099</v>
       </c>
       <c r="R22" t="n">
-        <v>6664459.574209161</v>
+        <v>6664538.975714988</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3112,7 +3121,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3131,10 +3139,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111895200</v>
+        <v>111895157</v>
       </c>
       <c r="B23" t="n">
-        <v>90689</v>
+        <v>90709</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3147,21 +3155,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5966</v>
+        <v>5448</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3174,10 +3182,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>383318.0931039054</v>
+        <v>383310.7440082335</v>
       </c>
       <c r="R23" t="n">
-        <v>6664423.409828701</v>
+        <v>6664459.574209161</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3247,10 +3255,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111895144</v>
+        <v>111895200</v>
       </c>
       <c r="B24" t="n">
-        <v>56414</v>
+        <v>90689</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3263,35 +3271,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100049</v>
+        <v>5966</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3299,13 +3298,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>383214.7932507099</v>
+        <v>383318.0931039054</v>
       </c>
       <c r="R24" t="n">
-        <v>6664538.975714988</v>
+        <v>6664423.409828701</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3353,6 +3352,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 9075-2023.xlsx
+++ b/artfynd/A 9075-2023.xlsx
@@ -2899,10 +2899,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111895224</v>
+        <v>111895157</v>
       </c>
       <c r="B21" t="n">
-        <v>90682</v>
+        <v>90709</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2915,21 +2915,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2059</v>
+        <v>5448</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2942,10 +2942,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>383386.3213553141</v>
+        <v>383310.7440082335</v>
       </c>
       <c r="R21" t="n">
-        <v>6664494.102709929</v>
+        <v>6664459.574209161</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111895144</v>
+        <v>111895224</v>
       </c>
       <c r="B22" t="n">
-        <v>56414</v>
+        <v>90682</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3031,35 +3031,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>2059</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3067,13 +3058,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>383214.7932507099</v>
+        <v>383386.3213553141</v>
       </c>
       <c r="R22" t="n">
-        <v>6664538.975714988</v>
+        <v>6664494.102709929</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3121,6 +3112,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3139,10 +3131,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111895157</v>
+        <v>111895144</v>
       </c>
       <c r="B23" t="n">
-        <v>90709</v>
+        <v>56414</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3155,26 +3147,35 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5448</v>
+        <v>100049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3182,13 +3183,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>383310.7440082335</v>
+        <v>383214.7932507099</v>
       </c>
       <c r="R23" t="n">
-        <v>6664459.574209161</v>
+        <v>6664538.975714988</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3236,7 +3237,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 9075-2023.xlsx
+++ b/artfynd/A 9075-2023.xlsx
@@ -2899,10 +2899,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111895157</v>
+        <v>111895224</v>
       </c>
       <c r="B21" t="n">
-        <v>90709</v>
+        <v>90682</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2915,21 +2915,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5448</v>
+        <v>2059</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2942,10 +2942,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>383310.7440082335</v>
+        <v>383386</v>
       </c>
       <c r="R21" t="n">
-        <v>6664459.574209161</v>
+        <v>6664494</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2975,19 +2975,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3015,10 +3005,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111895224</v>
+        <v>111895144</v>
       </c>
       <c r="B22" t="n">
-        <v>90682</v>
+        <v>56414</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3031,26 +3021,35 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2059</v>
+        <v>100049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3058,13 +3057,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>383386.3213553141</v>
+        <v>383215</v>
       </c>
       <c r="R22" t="n">
-        <v>6664494.102709929</v>
+        <v>6664539</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3091,28 +3090,17 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3131,10 +3119,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111895144</v>
+        <v>111895157</v>
       </c>
       <c r="B23" t="n">
-        <v>56414</v>
+        <v>90709</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3147,35 +3135,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100049</v>
+        <v>5448</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3183,13 +3162,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>383214.7932507099</v>
+        <v>383311</v>
       </c>
       <c r="R23" t="n">
-        <v>6664538.975714988</v>
+        <v>6664460</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3216,27 +3195,18 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3298,10 +3268,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>383318.0931039054</v>
+        <v>383318</v>
       </c>
       <c r="R24" t="n">
-        <v>6664423.409828701</v>
+        <v>6664423</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3331,19 +3301,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">

--- a/artfynd/A 9075-2023.xlsx
+++ b/artfynd/A 9075-2023.xlsx
@@ -2899,10 +2899,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111895224</v>
+        <v>111895200</v>
       </c>
       <c r="B21" t="n">
-        <v>90682</v>
+        <v>90823</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2915,21 +2915,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2059</v>
+        <v>5966</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2942,10 +2942,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>383386</v>
+        <v>383318</v>
       </c>
       <c r="R21" t="n">
-        <v>6664494</v>
+        <v>6664423</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3008,7 +3008,7 @@
         <v>111895144</v>
       </c>
       <c r="B22" t="n">
-        <v>56414</v>
+        <v>56446</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3119,10 +3119,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111895157</v>
+        <v>111895224</v>
       </c>
       <c r="B23" t="n">
-        <v>90709</v>
+        <v>90816</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3135,21 +3135,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5448</v>
+        <v>2059</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>383311</v>
+        <v>383386</v>
       </c>
       <c r="R23" t="n">
-        <v>6664460</v>
+        <v>6664494</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111895200</v>
+        <v>111895157</v>
       </c>
       <c r="B24" t="n">
-        <v>90689</v>
+        <v>90843</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3241,21 +3241,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5966</v>
+        <v>5448</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3268,10 +3268,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>383318</v>
+        <v>383311</v>
       </c>
       <c r="R24" t="n">
-        <v>6664423</v>
+        <v>6664460</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>

--- a/artfynd/A 9075-2023.xlsx
+++ b/artfynd/A 9075-2023.xlsx
@@ -2899,10 +2899,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111895200</v>
+        <v>111895157</v>
       </c>
       <c r="B21" t="n">
-        <v>90823</v>
+        <v>90857</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2915,21 +2915,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5966</v>
+        <v>5448</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2942,10 +2942,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>383318</v>
+        <v>383311</v>
       </c>
       <c r="R21" t="n">
-        <v>6664423</v>
+        <v>6664460</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3005,10 +3005,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111895144</v>
+        <v>111895200</v>
       </c>
       <c r="B22" t="n">
-        <v>56446</v>
+        <v>90837</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3021,35 +3021,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>5966</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3057,13 +3048,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>383215</v>
+        <v>383318</v>
       </c>
       <c r="R22" t="n">
-        <v>6664539</v>
+        <v>6664423</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3101,6 +3092,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3122,7 +3114,7 @@
         <v>111895224</v>
       </c>
       <c r="B23" t="n">
-        <v>90816</v>
+        <v>90830</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3225,10 +3217,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111895157</v>
+        <v>111895144</v>
       </c>
       <c r="B24" t="n">
-        <v>90843</v>
+        <v>56446</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3241,26 +3233,35 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5448</v>
+        <v>100049</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3268,13 +3269,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>383311</v>
+        <v>383215</v>
       </c>
       <c r="R24" t="n">
-        <v>6664460</v>
+        <v>6664539</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3312,7 +3313,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
